--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Xchanging Solutions Ltd/Pruned_Excel/Final_Parameters/Xchanging Solutions Ltd_Cleaned_Data.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Xchanging Solutions Ltd/Pruned_Excel/Final_Parameters/Xchanging Solutions Ltd_Cleaned_Data.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="219">
   <si>
     <t>Balance Sheet of Xchanging Solutions(in Rs. Cr.)</t>
   </si>
@@ -362,6 +362,9 @@
     <t>P/l before exceptional items &amp; tax</t>
   </si>
   <si>
+    <t>Exceptional items</t>
+  </si>
+  <si>
     <t>P/l before tax</t>
   </si>
   <si>
@@ -540,6 +543,9 @@
   </si>
   <si>
     <t>P/L Before Exceptional Items &amp; Tax</t>
+  </si>
+  <si>
+    <t>Exceptional Items</t>
   </si>
   <si>
     <t>P/L Before Tax</t>
@@ -3896,13 +3902,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>105</v>
       </c>
@@ -3963,19 +3969,22 @@
       <c r="T1" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
         <v>109</v>
@@ -3984,51 +3993,54 @@
         <v>93</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
         <v>87</v>
       </c>
       <c r="I2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
         <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="N2" t="s">
-        <v>175</v>
+        <v>116</v>
       </c>
       <c r="O2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>182</v>
+      </c>
+      <c r="U2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B3">
         <v>30.47</v>
@@ -4061,22 +4073,22 @@
         <v>7.21</v>
       </c>
       <c r="L3">
+        <v>1.65</v>
+      </c>
+      <c r="M3">
         <v>8.859999999999999</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>-3.35</v>
-      </c>
-      <c r="N3">
-        <v>12.21</v>
       </c>
       <c r="O3">
         <v>12.21</v>
       </c>
       <c r="P3">
+        <v>12.21</v>
+      </c>
+      <c r="Q3">
         <v>111.4</v>
-      </c>
-      <c r="Q3">
-        <v>1.1</v>
       </c>
       <c r="R3">
         <v>1.1</v>
@@ -4087,10 +4099,13 @@
       <c r="T3">
         <v>1.1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="U3">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>28.41</v>
@@ -4122,23 +4137,20 @@
       <c r="K4">
         <v>8.140000000000001</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8.140000000000001</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.86</v>
-      </c>
-      <c r="N4">
-        <v>4.28</v>
       </c>
       <c r="O4">
         <v>4.28</v>
       </c>
       <c r="P4">
+        <v>4.28</v>
+      </c>
+      <c r="Q4">
         <v>111.4</v>
-      </c>
-      <c r="Q4">
-        <v>0.38</v>
       </c>
       <c r="R4">
         <v>0.38</v>
@@ -4149,10 +4161,13 @@
       <c r="T4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="U4">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B5">
         <v>38.53</v>
@@ -4185,22 +4200,22 @@
         <v>4.73</v>
       </c>
       <c r="L5">
+        <v>1.73</v>
+      </c>
+      <c r="M5">
         <v>6.46</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.92</v>
-      </c>
-      <c r="N5">
-        <v>5.54</v>
       </c>
       <c r="O5">
         <v>5.54</v>
       </c>
       <c r="P5">
+        <v>5.54</v>
+      </c>
+      <c r="Q5">
         <v>111.4</v>
-      </c>
-      <c r="Q5">
-        <v>0.5</v>
       </c>
       <c r="R5">
         <v>0.5</v>
@@ -4211,10 +4226,13 @@
       <c r="T5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="U5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>40.23</v>
@@ -4246,23 +4264,20 @@
       <c r="K6">
         <v>9.23</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>9.23</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>4.65</v>
-      </c>
-      <c r="N6">
-        <v>4.58</v>
       </c>
       <c r="O6">
         <v>4.58</v>
       </c>
       <c r="P6">
+        <v>4.58</v>
+      </c>
+      <c r="Q6">
         <v>111.4</v>
-      </c>
-      <c r="Q6">
-        <v>0.41</v>
       </c>
       <c r="R6">
         <v>0.41</v>
@@ -4273,10 +4288,13 @@
       <c r="T6">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="U6">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>35.19</v>
@@ -4305,23 +4323,20 @@
       <c r="K7">
         <v>1.57</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>1.57</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.87</v>
-      </c>
-      <c r="N7">
-        <v>0.7</v>
       </c>
       <c r="O7">
         <v>0.7</v>
       </c>
       <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7">
         <v>111.4</v>
-      </c>
-      <c r="Q7">
-        <v>0.08</v>
       </c>
       <c r="R7">
         <v>0.08</v>
@@ -4332,10 +4347,13 @@
       <c r="T7">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="U7">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>35.63</v>
@@ -4368,22 +4386,22 @@
         <v>3.33</v>
       </c>
       <c r="L8">
+        <v>-6.88</v>
+      </c>
+      <c r="M8">
         <v>-3.55</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.05</v>
-      </c>
-      <c r="N8">
-        <v>-3.6</v>
       </c>
       <c r="O8">
         <v>-3.6</v>
       </c>
       <c r="P8">
+        <v>-3.6</v>
+      </c>
+      <c r="Q8">
         <v>111.4</v>
-      </c>
-      <c r="Q8">
-        <v>-0.32</v>
       </c>
       <c r="R8">
         <v>-0.32</v>
@@ -4394,10 +4412,13 @@
       <c r="T8">
         <v>-0.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="U8">
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>29.96</v>
@@ -4429,23 +4450,20 @@
       <c r="K9">
         <v>5.97</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5.97</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>2.66</v>
-      </c>
-      <c r="N9">
-        <v>3.31</v>
       </c>
       <c r="O9">
         <v>3.31</v>
       </c>
       <c r="P9">
+        <v>3.31</v>
+      </c>
+      <c r="Q9">
         <v>111.4</v>
-      </c>
-      <c r="Q9">
-        <v>0.3</v>
       </c>
       <c r="R9">
         <v>0.3</v>
@@ -4456,10 +4474,13 @@
       <c r="T9">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="U9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B10">
         <v>32.88</v>
@@ -4491,23 +4512,20 @@
       <c r="K10">
         <v>9.51</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>9.51</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>3.23</v>
-      </c>
-      <c r="N10">
-        <v>6.28</v>
       </c>
       <c r="O10">
         <v>6.28</v>
       </c>
       <c r="P10">
+        <v>6.28</v>
+      </c>
+      <c r="Q10">
         <v>111.4</v>
-      </c>
-      <c r="Q10">
-        <v>0.5600000000000001</v>
       </c>
       <c r="R10">
         <v>0.5600000000000001</v>
@@ -4518,10 +4536,13 @@
       <c r="T10">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="U10">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11">
         <v>29.49</v>
@@ -4553,23 +4574,20 @@
       <c r="K11">
         <v>8.68</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8.68</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3.88</v>
-      </c>
-      <c r="N11">
-        <v>4.8</v>
       </c>
       <c r="O11">
         <v>4.8</v>
       </c>
       <c r="P11">
+        <v>4.8</v>
+      </c>
+      <c r="Q11">
         <v>111.4</v>
-      </c>
-      <c r="Q11">
-        <v>0.43</v>
       </c>
       <c r="R11">
         <v>0.43</v>
@@ -4580,10 +4598,13 @@
       <c r="T11">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="U11">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12">
         <v>28.57</v>
@@ -4615,23 +4636,20 @@
       <c r="K12">
         <v>-1.07</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-1.07</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-0.32</v>
-      </c>
-      <c r="N12">
-        <v>-0.75</v>
       </c>
       <c r="O12">
         <v>-0.75</v>
       </c>
       <c r="P12">
+        <v>-0.75</v>
+      </c>
+      <c r="Q12">
         <v>111.4</v>
-      </c>
-      <c r="Q12">
-        <v>-0.07000000000000001</v>
       </c>
       <c r="R12">
         <v>-0.07000000000000001</v>
@@ -4642,10 +4660,13 @@
       <c r="T12">
         <v>-0.07000000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="U12">
+        <v>-0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13">
         <v>18.99</v>
@@ -4677,23 +4698,20 @@
       <c r="K13">
         <v>0.28</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>0.28</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.15</v>
-      </c>
-      <c r="N13">
-        <v>0.13</v>
       </c>
       <c r="O13">
         <v>0.13</v>
       </c>
       <c r="P13">
+        <v>0.13</v>
+      </c>
+      <c r="Q13">
         <v>111.4</v>
-      </c>
-      <c r="Q13">
-        <v>0.01</v>
       </c>
       <c r="R13">
         <v>0.01</v>
@@ -4704,10 +4722,13 @@
       <c r="T13">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="U13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14">
         <v>18.19</v>
@@ -4739,23 +4760,20 @@
       <c r="K14">
         <v>-2.01</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-2.01</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>-0.02</v>
-      </c>
-      <c r="N14">
-        <v>-1.99</v>
       </c>
       <c r="O14">
         <v>-1.99</v>
       </c>
       <c r="P14">
+        <v>-1.99</v>
+      </c>
+      <c r="Q14">
         <v>111.4</v>
-      </c>
-      <c r="Q14">
-        <v>-0.18</v>
       </c>
       <c r="R14">
         <v>-0.18</v>
@@ -4766,10 +4784,13 @@
       <c r="T14">
         <v>-0.18</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="U14">
+        <v>-0.18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15">
         <v>19.74</v>
@@ -4801,23 +4822,20 @@
       <c r="K15">
         <v>-2.72</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-2.72</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-0.11</v>
-      </c>
-      <c r="N15">
-        <v>-2.61</v>
       </c>
       <c r="O15">
         <v>-2.61</v>
       </c>
       <c r="P15">
+        <v>-2.61</v>
+      </c>
+      <c r="Q15">
         <v>111.4</v>
-      </c>
-      <c r="Q15">
-        <v>-0.23</v>
       </c>
       <c r="R15">
         <v>-0.23</v>
@@ -4828,10 +4846,13 @@
       <c r="T15">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="U15">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B16">
         <v>24.76</v>
@@ -4863,23 +4884,20 @@
       <c r="K16">
         <v>1.67</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>1.67</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.33</v>
-      </c>
-      <c r="N16">
-        <v>0.34</v>
       </c>
       <c r="O16">
         <v>0.34</v>
       </c>
       <c r="P16">
+        <v>0.34</v>
+      </c>
+      <c r="Q16">
         <v>111.4</v>
-      </c>
-      <c r="Q16">
-        <v>0.03</v>
       </c>
       <c r="R16">
         <v>0.03</v>
@@ -4890,10 +4908,13 @@
       <c r="T16">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="U16">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B17">
         <v>17.34</v>
@@ -4925,23 +4946,20 @@
       <c r="K17">
         <v>-3.42</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-3.42</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-0.88</v>
-      </c>
-      <c r="N17">
-        <v>-2.54</v>
       </c>
       <c r="O17">
         <v>-2.54</v>
       </c>
       <c r="P17">
+        <v>-2.54</v>
+      </c>
+      <c r="Q17">
         <v>111.4</v>
-      </c>
-      <c r="Q17">
-        <v>-0.23</v>
       </c>
       <c r="R17">
         <v>-0.23</v>
@@ -4952,10 +4970,13 @@
       <c r="T17">
         <v>-0.23</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="U17">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B18">
         <v>13.79</v>
@@ -4987,23 +5008,20 @@
       <c r="K18">
         <v>4.67</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>4.67</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>1.84</v>
-      </c>
-      <c r="N18">
-        <v>2.83</v>
       </c>
       <c r="O18">
         <v>2.83</v>
       </c>
       <c r="P18">
+        <v>2.83</v>
+      </c>
+      <c r="Q18">
         <v>111.4</v>
-      </c>
-      <c r="Q18">
-        <v>0.25</v>
       </c>
       <c r="R18">
         <v>0.25</v>
@@ -5014,10 +5032,13 @@
       <c r="T18">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="U18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B19">
         <v>12.61</v>
@@ -5049,23 +5070,20 @@
       <c r="K19">
         <v>1.82</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>1.82</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>0.77</v>
-      </c>
-      <c r="N19">
-        <v>1.05</v>
       </c>
       <c r="O19">
         <v>1.05</v>
       </c>
       <c r="P19">
+        <v>1.05</v>
+      </c>
+      <c r="Q19">
         <v>111.4</v>
-      </c>
-      <c r="Q19">
-        <v>0.09</v>
       </c>
       <c r="R19">
         <v>0.09</v>
@@ -5076,10 +5094,13 @@
       <c r="T19">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B20">
         <v>15.09</v>
@@ -5111,23 +5132,20 @@
       <c r="K20">
         <v>2.32</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>2.32</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>1.27</v>
-      </c>
-      <c r="N20">
-        <v>1.05</v>
       </c>
       <c r="O20">
         <v>1.05</v>
       </c>
       <c r="P20">
+        <v>1.05</v>
+      </c>
+      <c r="Q20">
         <v>111.4</v>
-      </c>
-      <c r="Q20">
-        <v>0.09</v>
       </c>
       <c r="R20">
         <v>0.09</v>
@@ -5138,10 +5156,13 @@
       <c r="T20">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="U20">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B21">
         <v>13.62</v>
@@ -5170,23 +5191,20 @@
       <c r="K21">
         <v>5.22</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>5.22</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>1.69</v>
-      </c>
-      <c r="N21">
-        <v>3.53</v>
       </c>
       <c r="O21">
         <v>3.53</v>
       </c>
       <c r="P21">
+        <v>3.53</v>
+      </c>
+      <c r="Q21">
         <v>111.4</v>
-      </c>
-      <c r="Q21">
-        <v>0.32</v>
       </c>
       <c r="R21">
         <v>0.32</v>
@@ -5197,10 +5215,13 @@
       <c r="T21">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="U21">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>14.44</v>
@@ -5229,23 +5250,20 @@
       <c r="K22">
         <v>4.15</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4.15</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>3.47</v>
-      </c>
-      <c r="N22">
-        <v>0.68</v>
       </c>
       <c r="O22">
         <v>0.68</v>
       </c>
       <c r="P22">
+        <v>0.68</v>
+      </c>
+      <c r="Q22">
         <v>111.4</v>
-      </c>
-      <c r="Q22">
-        <v>0.06</v>
       </c>
       <c r="R22">
         <v>0.06</v>
@@ -5256,10 +5274,13 @@
       <c r="T22">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="U22">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B23">
         <v>14.28</v>
@@ -5288,23 +5309,20 @@
       <c r="K23">
         <v>6.89</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>6.89</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>2.27</v>
-      </c>
-      <c r="N23">
-        <v>4.62</v>
       </c>
       <c r="O23">
         <v>4.62</v>
       </c>
       <c r="P23">
+        <v>4.62</v>
+      </c>
+      <c r="Q23">
         <v>111.4</v>
-      </c>
-      <c r="Q23">
-        <v>0.41</v>
       </c>
       <c r="R23">
         <v>0.41</v>
@@ -5315,10 +5333,13 @@
       <c r="T23">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="U23">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B24">
         <v>11.53</v>
@@ -5350,23 +5371,20 @@
       <c r="K24">
         <v>6.1</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>6.1</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>1.93</v>
-      </c>
-      <c r="N24">
-        <v>4.17</v>
       </c>
       <c r="O24">
         <v>4.17</v>
       </c>
       <c r="P24">
+        <v>4.17</v>
+      </c>
+      <c r="Q24">
         <v>111.4</v>
-      </c>
-      <c r="Q24">
-        <v>0.37</v>
       </c>
       <c r="R24">
         <v>0.37</v>
@@ -5377,10 +5395,13 @@
       <c r="T24">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="U24">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B25">
         <v>10.84</v>
@@ -5412,23 +5433,20 @@
       <c r="K25">
         <v>6</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-3.57</v>
-      </c>
-      <c r="N25">
-        <v>9.57</v>
       </c>
       <c r="O25">
         <v>9.57</v>
       </c>
       <c r="P25">
+        <v>9.57</v>
+      </c>
+      <c r="Q25">
         <v>111.4</v>
-      </c>
-      <c r="Q25">
-        <v>0.88</v>
       </c>
       <c r="R25">
         <v>0.88</v>
@@ -5439,10 +5457,13 @@
       <c r="T25">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="U25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B26">
         <v>10.88</v>
@@ -5474,23 +5495,20 @@
       <c r="K26">
         <v>10.14</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>10.14</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3.08</v>
-      </c>
-      <c r="N26">
-        <v>7.06</v>
       </c>
       <c r="O26">
         <v>7.06</v>
       </c>
       <c r="P26">
+        <v>7.06</v>
+      </c>
+      <c r="Q26">
         <v>111.4</v>
-      </c>
-      <c r="Q26">
-        <v>0.63</v>
       </c>
       <c r="R26">
         <v>0.63</v>
@@ -5501,10 +5519,13 @@
       <c r="T26">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="U26">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B27">
         <v>12.6</v>
@@ -5533,23 +5554,20 @@
       <c r="K27">
         <v>6.1</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>6.1</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>1.95</v>
-      </c>
-      <c r="N27">
-        <v>4.15</v>
       </c>
       <c r="O27">
         <v>4.15</v>
       </c>
       <c r="P27">
+        <v>4.15</v>
+      </c>
+      <c r="Q27">
         <v>111.4</v>
-      </c>
-      <c r="Q27">
-        <v>0.37</v>
       </c>
       <c r="R27">
         <v>0.37</v>
@@ -5560,10 +5578,13 @@
       <c r="T27">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="U27">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B28">
         <v>10.8</v>
@@ -5595,23 +5616,20 @@
       <c r="K28">
         <v>5.06</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>5.06</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.39</v>
-      </c>
-      <c r="N28">
-        <v>2.67</v>
       </c>
       <c r="O28">
         <v>2.67</v>
       </c>
       <c r="P28">
+        <v>2.67</v>
+      </c>
+      <c r="Q28">
         <v>111.4</v>
-      </c>
-      <c r="Q28">
-        <v>0.24</v>
       </c>
       <c r="R28">
         <v>0.24</v>
@@ -5622,10 +5640,13 @@
       <c r="T28">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="U28">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29">
         <v>9.68</v>
@@ -5657,23 +5678,20 @@
       <c r="K29">
         <v>4.53</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>4.53</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-0.49</v>
-      </c>
-      <c r="N29">
-        <v>5.02</v>
       </c>
       <c r="O29">
         <v>5.02</v>
       </c>
       <c r="P29">
+        <v>5.02</v>
+      </c>
+      <c r="Q29">
         <v>111.4</v>
-      </c>
-      <c r="Q29">
-        <v>0.45</v>
       </c>
       <c r="R29">
         <v>0.45</v>
@@ -5684,10 +5702,13 @@
       <c r="T29">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="U29">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B30">
         <v>9.92</v>
@@ -5719,23 +5740,20 @@
       <c r="K30">
         <v>3.84</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>3.84</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.45</v>
-      </c>
-      <c r="N30">
-        <v>2.39</v>
       </c>
       <c r="O30">
         <v>2.39</v>
       </c>
       <c r="P30">
+        <v>2.39</v>
+      </c>
+      <c r="Q30">
         <v>111.4</v>
-      </c>
-      <c r="Q30">
-        <v>0.21</v>
       </c>
       <c r="R30">
         <v>0.21</v>
@@ -5746,10 +5764,13 @@
       <c r="T30">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="U30">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B31">
         <v>10.7</v>
@@ -5781,23 +5802,20 @@
       <c r="K31">
         <v>11.14</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>11.14</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>3.39</v>
-      </c>
-      <c r="N31">
-        <v>7.75</v>
       </c>
       <c r="O31">
         <v>7.75</v>
       </c>
       <c r="P31">
+        <v>7.75</v>
+      </c>
+      <c r="Q31">
         <v>111.4</v>
-      </c>
-      <c r="Q31">
-        <v>0.7</v>
       </c>
       <c r="R31">
         <v>0.7</v>
@@ -5808,10 +5826,13 @@
       <c r="T31">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="U31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B32">
         <v>10.18</v>
@@ -5843,23 +5864,20 @@
       <c r="K32">
         <v>5.13</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>5.13</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>1.74</v>
-      </c>
-      <c r="N32">
-        <v>3.39</v>
       </c>
       <c r="O32">
         <v>3.39</v>
       </c>
       <c r="P32">
+        <v>3.39</v>
+      </c>
+      <c r="Q32">
         <v>111.4</v>
-      </c>
-      <c r="Q32">
-        <v>0.3</v>
       </c>
       <c r="R32">
         <v>0.3</v>
@@ -5870,10 +5888,13 @@
       <c r="T32">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="U32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B33">
         <v>11.73</v>
@@ -5905,23 +5926,20 @@
       <c r="K33">
         <v>7.12</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>7.12</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>2.31</v>
-      </c>
-      <c r="N33">
-        <v>4.81</v>
       </c>
       <c r="O33">
         <v>4.81</v>
       </c>
       <c r="P33">
+        <v>4.81</v>
+      </c>
+      <c r="Q33">
         <v>111.4</v>
-      </c>
-      <c r="Q33">
-        <v>0.43</v>
       </c>
       <c r="R33">
         <v>0.43</v>
@@ -5932,10 +5950,13 @@
       <c r="T33">
         <v>0.43</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="U33">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B34">
         <v>11.04</v>
@@ -5967,23 +5988,20 @@
       <c r="K34">
         <v>6.09</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>6.09</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>-5.2</v>
-      </c>
-      <c r="N34">
-        <v>11.29</v>
       </c>
       <c r="O34">
         <v>11.29</v>
       </c>
       <c r="P34">
+        <v>11.29</v>
+      </c>
+      <c r="Q34">
         <v>111.4</v>
-      </c>
-      <c r="Q34">
-        <v>1.01</v>
       </c>
       <c r="R34">
         <v>1.01</v>
@@ -5994,10 +6012,13 @@
       <c r="T34">
         <v>1.01</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="U34">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B35">
         <v>9.699999999999999</v>
@@ -6029,23 +6050,20 @@
       <c r="K35">
         <v>4.41</v>
       </c>
-      <c r="L35">
+      <c r="M35">
         <v>4.41</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>1.63</v>
-      </c>
-      <c r="N35">
-        <v>2.78</v>
       </c>
       <c r="O35">
         <v>2.78</v>
       </c>
       <c r="P35">
+        <v>2.78</v>
+      </c>
+      <c r="Q35">
         <v>111.4</v>
-      </c>
-      <c r="Q35">
-        <v>0.25</v>
       </c>
       <c r="R35">
         <v>0.25</v>
@@ -6056,10 +6074,13 @@
       <c r="T35">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="U35">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>10.67</v>
@@ -6091,23 +6112,20 @@
       <c r="K36">
         <v>2.69</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <v>2.69</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>-0.36</v>
-      </c>
-      <c r="N36">
-        <v>3.05</v>
       </c>
       <c r="O36">
         <v>3.05</v>
       </c>
       <c r="P36">
+        <v>3.05</v>
+      </c>
+      <c r="Q36">
         <v>111.4</v>
-      </c>
-      <c r="Q36">
-        <v>0.27</v>
       </c>
       <c r="R36">
         <v>0.27</v>
@@ -6118,10 +6136,13 @@
       <c r="T36">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="U36">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B37">
         <v>11.38</v>
@@ -6153,23 +6174,20 @@
       <c r="K37">
         <v>5.19</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>5.19</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>1.88</v>
-      </c>
-      <c r="N37">
-        <v>3.31</v>
       </c>
       <c r="O37">
         <v>3.31</v>
       </c>
       <c r="P37">
+        <v>3.31</v>
+      </c>
+      <c r="Q37">
         <v>111.4</v>
-      </c>
-      <c r="Q37">
-        <v>0.3</v>
       </c>
       <c r="R37">
         <v>0.3</v>
@@ -6180,10 +6198,13 @@
       <c r="T37">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="U37">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B38">
         <v>8.890000000000001</v>
@@ -6215,23 +6236,20 @@
       <c r="K38">
         <v>3.58</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>3.58</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>1.65</v>
-      </c>
-      <c r="N38">
-        <v>1.93</v>
       </c>
       <c r="O38">
         <v>1.93</v>
       </c>
       <c r="P38">
+        <v>1.93</v>
+      </c>
+      <c r="Q38">
         <v>111.4</v>
-      </c>
-      <c r="Q38">
-        <v>0.17</v>
       </c>
       <c r="R38">
         <v>0.17</v>
@@ -6242,10 +6260,13 @@
       <c r="T38">
         <v>0.17</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="U38">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B39">
         <v>10.16</v>
@@ -6277,23 +6298,20 @@
       <c r="K39">
         <v>5.73</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <v>5.73</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>2.02</v>
-      </c>
-      <c r="N39">
-        <v>3.71</v>
       </c>
       <c r="O39">
         <v>3.71</v>
       </c>
       <c r="P39">
+        <v>3.71</v>
+      </c>
+      <c r="Q39">
         <v>111.4</v>
-      </c>
-      <c r="Q39">
-        <v>0.33</v>
       </c>
       <c r="R39">
         <v>0.33</v>
@@ -6304,10 +6322,13 @@
       <c r="T39">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="U39">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B40">
         <v>10.19</v>
@@ -6339,23 +6360,20 @@
       <c r="K40">
         <v>5.06</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>5.06</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>-1.23</v>
-      </c>
-      <c r="N40">
-        <v>6.29</v>
       </c>
       <c r="O40">
         <v>6.29</v>
       </c>
       <c r="P40">
+        <v>6.29</v>
+      </c>
+      <c r="Q40">
         <v>111.4</v>
-      </c>
-      <c r="Q40">
-        <v>0.5600000000000001</v>
       </c>
       <c r="R40">
         <v>0.5600000000000001</v>
@@ -6366,10 +6384,13 @@
       <c r="T40">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="U40">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B41">
         <v>8.880000000000001</v>
@@ -6402,22 +6423,22 @@
         <v>6.14</v>
       </c>
       <c r="L41">
+        <v>183.15</v>
+      </c>
+      <c r="M41">
         <v>189.29</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>19.67</v>
-      </c>
-      <c r="N41">
-        <v>169.62</v>
       </c>
       <c r="O41">
         <v>169.62</v>
       </c>
       <c r="P41">
+        <v>169.62</v>
+      </c>
+      <c r="Q41">
         <v>111.4</v>
-      </c>
-      <c r="Q41">
-        <v>15.23</v>
       </c>
       <c r="R41">
         <v>15.23</v>
@@ -6428,10 +6449,13 @@
       <c r="T41">
         <v>15.23</v>
       </c>
-    </row>
-    <row r="42" spans="1:20">
+      <c r="U41">
+        <v>15.23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B42">
         <v>8.869999999999999</v>
@@ -6463,23 +6487,20 @@
       <c r="K42">
         <v>4.42</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>4.42</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>1.66</v>
-      </c>
-      <c r="N42">
-        <v>2.76</v>
       </c>
       <c r="O42">
         <v>2.76</v>
       </c>
       <c r="P42">
+        <v>2.76</v>
+      </c>
+      <c r="Q42">
         <v>111.4</v>
-      </c>
-      <c r="Q42">
-        <v>0.25</v>
       </c>
       <c r="R42">
         <v>0.25</v>
@@ -6490,10 +6511,13 @@
       <c r="T42">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="43" spans="1:20">
+      <c r="U42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B43">
         <v>8.699999999999999</v>
@@ -6526,22 +6550,22 @@
         <v>74.64</v>
       </c>
       <c r="L43">
+        <v>126.5</v>
+      </c>
+      <c r="M43">
         <v>201.14</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>16.38</v>
-      </c>
-      <c r="N43">
-        <v>184.76</v>
       </c>
       <c r="O43">
         <v>184.76</v>
       </c>
       <c r="P43">
+        <v>184.76</v>
+      </c>
+      <c r="Q43">
         <v>111.4</v>
-      </c>
-      <c r="Q43">
-        <v>16.59</v>
       </c>
       <c r="R43">
         <v>16.59</v>
@@ -6552,10 +6576,13 @@
       <c r="T43">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="44" spans="1:20">
+      <c r="U43">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>8.58</v>
@@ -6587,23 +6614,20 @@
       <c r="K44">
         <v>7.14</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>7.14</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>2.03</v>
-      </c>
-      <c r="N44">
-        <v>5.11</v>
       </c>
       <c r="O44">
         <v>5.11</v>
       </c>
       <c r="P44">
+        <v>5.11</v>
+      </c>
+      <c r="Q44">
         <v>111.4</v>
-      </c>
-      <c r="Q44">
-        <v>0.46</v>
       </c>
       <c r="R44">
         <v>0.46</v>
@@ -6614,10 +6638,13 @@
       <c r="T44">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="45" spans="1:20">
+      <c r="U44">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>9.029999999999999</v>
@@ -6649,23 +6676,20 @@
       <c r="K45">
         <v>4.69</v>
       </c>
-      <c r="L45">
+      <c r="M45">
         <v>4.69</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>1.44</v>
-      </c>
-      <c r="N45">
-        <v>3.25</v>
       </c>
       <c r="O45">
         <v>3.25</v>
       </c>
       <c r="P45">
+        <v>3.25</v>
+      </c>
+      <c r="Q45">
         <v>111.4</v>
-      </c>
-      <c r="Q45">
-        <v>0.29</v>
       </c>
       <c r="R45">
         <v>0.29</v>
@@ -6676,10 +6700,13 @@
       <c r="T45">
         <v>0.29</v>
       </c>
-    </row>
-    <row r="46" spans="1:20">
+      <c r="U45">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B46">
         <v>9.48</v>
@@ -6711,23 +6738,20 @@
       <c r="K46">
         <v>7.04</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>7.04</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>1.96</v>
-      </c>
-      <c r="N46">
-        <v>5.08</v>
       </c>
       <c r="O46">
         <v>5.08</v>
       </c>
       <c r="P46">
+        <v>5.08</v>
+      </c>
+      <c r="Q46">
         <v>111.4</v>
-      </c>
-      <c r="Q46">
-        <v>0.46</v>
       </c>
       <c r="R46">
         <v>0.46</v>
@@ -6738,10 +6762,13 @@
       <c r="T46">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="47" spans="1:20">
+      <c r="U46">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B47">
         <v>10.67</v>
@@ -6773,23 +6800,20 @@
       <c r="K47">
         <v>9.43</v>
       </c>
-      <c r="L47">
+      <c r="M47">
         <v>9.43</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>2.42</v>
-      </c>
-      <c r="N47">
-        <v>7.01</v>
       </c>
       <c r="O47">
         <v>7.01</v>
       </c>
       <c r="P47">
+        <v>7.01</v>
+      </c>
+      <c r="Q47">
         <v>111.4</v>
-      </c>
-      <c r="Q47">
-        <v>0.63</v>
       </c>
       <c r="R47">
         <v>0.63</v>
@@ -6798,6 +6822,9 @@
         <v>0.63</v>
       </c>
       <c r="T47">
+        <v>0.63</v>
+      </c>
+      <c r="U47">
         <v>0.63</v>
       </c>
     </row>
@@ -6816,114 +6843,114 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="R2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:18">
